--- a/Rule/FinancialFeeRule.xlsx
+++ b/Rule/FinancialFeeRule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Rule Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="CreditFee" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="46">
   <si>
     <t>DATA OBJECTS</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>DLRFNCNG</t>
+  </si>
+  <si>
+    <t>LOCK</t>
   </si>
 </sst>
 </file>
@@ -572,26 +575,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="20" width="18.5546875" customWidth="1"/>
+    <col min="7" max="20" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -599,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -611,7 +614,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -623,12 +626,12 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -636,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -748,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -810,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N12" s="4">
         <v>50000</v>
@@ -872,7 +875,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
@@ -988,7 +991,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -1046,7 +1049,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -1104,7 +1107,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -1138,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
@@ -1162,7 +1165,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
@@ -1220,7 +1223,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
@@ -1336,7 +1339,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3">
@@ -1394,7 +1397,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
@@ -1452,7 +1455,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
@@ -1510,7 +1513,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3">
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3">
@@ -1686,7 +1689,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -1744,7 +1747,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3">
@@ -1802,7 +1805,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
@@ -1860,7 +1863,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3">
@@ -1918,7 +1921,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
@@ -1976,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
@@ -2034,7 +2037,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
@@ -2092,7 +2095,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
@@ -2150,7 +2153,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
@@ -2208,7 +2211,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>32</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3">
@@ -2326,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -2384,7 +2387,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
@@ -2442,7 +2445,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -2500,7 +2503,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
@@ -2558,7 +2561,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -2616,7 +2619,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
@@ -2674,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
@@ -2732,7 +2735,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
@@ -2790,7 +2793,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
@@ -2848,7 +2851,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3">
@@ -2906,7 +2909,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3">
@@ -3024,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3">
@@ -3082,7 +3085,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3">
@@ -3140,7 +3143,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3">
@@ -3198,7 +3201,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3">
@@ -3256,7 +3259,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3">
@@ -3314,7 +3317,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3">
@@ -3372,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3">
@@ -3430,7 +3433,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3">
@@ -3488,7 +3491,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3">
@@ -3546,7 +3549,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3">
@@ -3604,7 +3607,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>34</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3">
@@ -3722,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
@@ -3780,7 +3783,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3">
@@ -3838,7 +3841,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3">
@@ -3896,7 +3899,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
@@ -3954,7 +3957,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3">
@@ -4012,7 +4015,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3">
@@ -4070,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3">
@@ -4128,7 +4131,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3">
@@ -4186,7 +4189,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3">
@@ -4244,7 +4247,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3">
@@ -4302,7 +4305,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>44</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3">
@@ -4420,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3">
@@ -4478,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3">
@@ -4536,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3">
@@ -4594,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3">
@@ -4652,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3">
@@ -4710,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3">
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3">
@@ -4826,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3">
@@ -4884,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3">
@@ -4942,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3">

--- a/Rule/FinancialFeeRule.xlsx
+++ b/Rule/FinancialFeeRule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>

--- a/Rule/FinancialFeeRule.xlsx
+++ b/Rule/FinancialFeeRule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teresa.octaviani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19120" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="CreditFee" sheetId="1" r:id="rId1"/>
@@ -575,26 +575,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="J56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="20" width="18.5703125" customWidth="1"/>
+    <col min="7" max="20" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -626,12 +626,12 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -751,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -865,17 +865,17 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>14</v>
+      <c r="R12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="4">
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
@@ -991,7 +991,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -1049,7 +1049,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -1107,7 +1107,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -1126,13 +1126,13 @@
         <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="K17" s="6">
         <v>3</v>
@@ -1159,13 +1159,13 @@
         <v>25</v>
       </c>
       <c r="S17" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T17" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
@@ -1223,7 +1223,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
@@ -1339,7 +1339,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3">
@@ -1397,7 +1397,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
@@ -1455,7 +1455,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
@@ -1513,7 +1513,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3">
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3">
@@ -1689,7 +1689,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -1747,7 +1747,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3">
@@ -1805,7 +1805,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
@@ -1863,7 +1863,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3">
@@ -1921,7 +1921,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
@@ -2037,7 +2037,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
@@ -2095,7 +2095,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
@@ -2153,7 +2153,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
@@ -2211,7 +2211,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -2387,7 +2387,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
@@ -2445,7 +2445,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -2503,7 +2503,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
@@ -2561,7 +2561,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -2619,7 +2619,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
@@ -2735,7 +2735,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
@@ -2793,7 +2793,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
@@ -2851,7 +2851,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3">
@@ -2909,7 +2909,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>33</v>
       </c>
@@ -2960,16 +2960,16 @@
         <v>0</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="S48" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T48" s="4">
         <v>100000</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3">
@@ -3085,7 +3085,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3">
@@ -3143,7 +3143,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3">
@@ -3201,7 +3201,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3">
@@ -3220,13 +3220,13 @@
         <v>13</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I53" s="6">
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="K53" s="6">
         <v>3</v>
@@ -3253,13 +3253,13 @@
         <v>25</v>
       </c>
       <c r="S53" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T53" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3">
@@ -3317,7 +3317,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3">
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3">
@@ -3433,7 +3433,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3">
@@ -3491,7 +3491,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3">
@@ -3549,7 +3549,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3">
@@ -3607,7 +3607,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>34</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3">
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
@@ -3783,7 +3783,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3">
@@ -3841,7 +3841,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3">
@@ -3899,7 +3899,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
@@ -3957,7 +3957,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3">
@@ -4015,7 +4015,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3">
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3">
@@ -4131,7 +4131,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3">
@@ -4189,7 +4189,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3">
@@ -4247,7 +4247,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3">
@@ -4305,7 +4305,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>44</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3">
@@ -4616,13 +4616,13 @@
         <v>13</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I77" s="6">
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="K77" s="6">
         <v>3</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3">
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3">
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3">
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3">
